--- a/BOM_V1_Schematic.xlsx
+++ b/BOM_V1_Schematic.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\portm\Desktop\EEE3088\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/03512cd8b7f9300b/Documents/GitHub/EEE3088F_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{307D1DA8-5060-452A-8160-42AEDDECC79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{307D1DA8-5060-452A-8160-42AEDDECC79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4258C042-6DCF-443E-90D2-8F7D00D6839A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EEE3088_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
   <si>
     <t>Reference</t>
   </si>
@@ -398,12 +411,21 @@
   </si>
   <si>
     <t>0DNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Components Cost: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toal Extended Parts Cost: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
   </numFmts>
@@ -724,7 +746,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -854,6 +876,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -899,7 +932,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -908,6 +941,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1264,25 +1303,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1360,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1386,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1412,7 +1451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1438,7 +1477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1490,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
@@ -1514,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1540,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1566,7 +1605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1592,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1618,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -1644,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>62</v>
       </c>
@@ -1670,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1696,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
@@ -1722,7 +1761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -1748,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -1774,7 +1813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -1800,7 +1839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>7</v>
       </c>
@@ -1826,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>92</v>
       </c>
@@ -1852,7 +1891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -1878,7 +1917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -1904,7 +1943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>103</v>
       </c>
@@ -1930,7 +1969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -1956,7 +1995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -1982,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>114</v>
       </c>
@@ -2008,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -2032,6 +2071,31 @@
       </c>
       <c r="H29" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D2:D29)*3</f>
+        <v>6</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30">
+        <f>SUM(G2:G29)</f>
+        <v>2.3986999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F32" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32">
+        <f>G30+D30</f>
+        <v>8.3986999999999998</v>
       </c>
     </row>
   </sheetData>
